--- a/medicine/Enfance/Larry_J._Bash/Larry_J._Bash.xlsx
+++ b/medicine/Enfance/Larry_J._Bash/Larry_J._Bash.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Larry J. Bash est une série française de dix romans policiers pour la jeunesse écrits par le « Lieutenant X », pseudonyme de Vladimir Volkoff.
@@ -514,11 +526,13 @@
           <t>L'auteur</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La série Larry J. Bash est née en 1980 sous la plume de l'écrivain français d’origine russe, Vladimir Volkoff (1932-2005), qui a longtemps vécu aux États-Unis. Cette série a été publiée sans véritable signature mais avec la mention : « Le Lieutenant X présente… » (Lieutenant X étant le pseudonyme utilisé par Volkoff pour signer les nombreux volumes de sa célèbre série pour la jeunesse Langelot).
-Chacun des dix volumes des aventures de Larry J. Bash est censé avoir été écrit par le héros-narrateur lui-même, et traduit en français par un certain « Gil Hérel »[1]. En réalité, il n'a jamais existé la moindre édition originale américaine des enquêtes de Larry J. Bash.
-Le Lieutenant X a également été l'auteur d'une série d’espionnage dérivée de Langelot, destinée aux filles, et dont l’héroïne, nommée Corinne, était déjà un personnage de la série Langelot[2].
+Chacun des dix volumes des aventures de Larry J. Bash est censé avoir été écrit par le héros-narrateur lui-même, et traduit en français par un certain « Gil Hérel ». En réalité, il n'a jamais existé la moindre édition originale américaine des enquêtes de Larry J. Bash.
+Le Lieutenant X a également été l'auteur d'une série d’espionnage dérivée de Langelot, destinée aux filles, et dont l’héroïne, nommée Corinne, était déjà un personnage de la série Langelot.
 </t>
         </is>
       </c>
@@ -548,6 +562,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -573,7 +589,9 @@
           <t>Liste des titres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Note : la première date est celle de la première édition.
 1980 : Comment je suis devenu détective privé
@@ -613,7 +631,9 @@
           <t>Illustration</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Pour les éditions parues de 1980 à 1984, l'illustrateur en titre est Robert Bressy.
 </t>
